--- a/Fama-macBeth data/Bull state probability.xlsx
+++ b/Fama-macBeth data/Bull state probability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Escritorio\Memoria\Memoria_LA\Fama-macBeth data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED4091A-64CA-48A0-B7B0-090DACDD8609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C735DC-0856-449D-A481-E63FE500638C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{78006D4F-AAD0-4126-B36C-B8533ADFA464}"/>
   </bookViews>
@@ -2448,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51741705-B6AF-4EED-9FD4-2DC7DD7876F6}">
   <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217:A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5374,8 +5374,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B243">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C243">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
